--- a/data/trans_orig/P2A_lim_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P2A_lim_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>21223</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13152</v>
+        <v>13379</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33446</v>
+        <v>32348</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04489193309896985</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02782056074922303</v>
+        <v>0.02829963601826505</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07074767878847125</v>
+        <v>0.06842591072429847</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>16422</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9718</v>
+        <v>9110</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26257</v>
+        <v>25092</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05354694173447929</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0316872739425611</v>
+        <v>0.02970442191193685</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0856165807640787</v>
+        <v>0.08181837906827027</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -786,19 +786,19 @@
         <v>37644</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26851</v>
+        <v>26029</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51651</v>
+        <v>50754</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04829740734552029</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03444992367093696</v>
+        <v>0.0333945195057541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06626765282882315</v>
+        <v>0.06511683655180375</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>451524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>439301</v>
+        <v>440399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>459595</v>
+        <v>459368</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9551080669010301</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9292523212115289</v>
+        <v>0.9315740892757016</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.972179439250777</v>
+        <v>0.971700363981735</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>282</v>
@@ -836,19 +836,19 @@
         <v>290258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>280423</v>
+        <v>281588</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>296962</v>
+        <v>297570</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9464530582655207</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9143834192359214</v>
+        <v>0.9181816209317297</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9683127260574388</v>
+        <v>0.9702955780880631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>716</v>
@@ -857,19 +857,19 @@
         <v>741784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>727777</v>
+        <v>728674</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>752577</v>
+        <v>753399</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9517025926544797</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9337323471711769</v>
+        <v>0.9348831634481962</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9655500763290632</v>
+        <v>0.9666054804942459</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>20078</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12866</v>
+        <v>11629</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30756</v>
+        <v>29847</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05501989260459764</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03525615198795405</v>
+        <v>0.03186635317894662</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08427982138161851</v>
+        <v>0.08178873026660273</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -982,19 +982,19 @@
         <v>21293</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13244</v>
+        <v>13236</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32594</v>
+        <v>32482</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05741817071334526</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03571375109972397</v>
+        <v>0.03569083750270096</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08789036273713761</v>
+        <v>0.08759000638686677</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -1003,19 +1003,19 @@
         <v>41371</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30563</v>
+        <v>29603</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56346</v>
+        <v>54701</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05622868444977014</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04153915270554474</v>
+        <v>0.04023454258331067</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0765807731182373</v>
+        <v>0.07434544835443177</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>344846</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>334168</v>
+        <v>335077</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>352058</v>
+        <v>353295</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9449801073954024</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9157201786183815</v>
+        <v>0.9182112697333973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9647438480120458</v>
+        <v>0.9681336468210534</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -1053,19 +1053,19 @@
         <v>349554</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>338253</v>
+        <v>338365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>357603</v>
+        <v>357611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9425818292866547</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.912109637262861</v>
+        <v>0.9124099936131328</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9642862489002756</v>
+        <v>0.9643091624972988</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>671</v>
@@ -1074,19 +1074,19 @@
         <v>694401</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>679426</v>
+        <v>681071</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>705209</v>
+        <v>706169</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9437713155502299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9234192268817627</v>
+        <v>0.9256545516455682</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9584608472944551</v>
+        <v>0.9597654574166893</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>34883</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25672</v>
+        <v>24432</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49261</v>
+        <v>48025</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06441897911505494</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04740915065345388</v>
+        <v>0.04511775339875605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0909699490378099</v>
+        <v>0.08868776407357391</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>16657</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10397</v>
+        <v>10490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26548</v>
+        <v>25597</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1004963023734636</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06272654199947778</v>
+        <v>0.06328632601673456</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1601678734281004</v>
+        <v>0.1544305760966201</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -1220,19 +1220,19 @@
         <v>51541</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40058</v>
+        <v>38982</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66346</v>
+        <v>66564</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07287396354078193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05663772472267996</v>
+        <v>0.05511765137637954</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09380757911247121</v>
+        <v>0.09411566576561385</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>506624</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>492246</v>
+        <v>493482</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>515835</v>
+        <v>517075</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9355810208849451</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.90903005096219</v>
+        <v>0.911312235926426</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9525908493465461</v>
+        <v>0.9548822466012439</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -1270,19 +1270,19 @@
         <v>149094</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>139203</v>
+        <v>140154</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>155354</v>
+        <v>155261</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8995036976265364</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8398321265718991</v>
+        <v>0.8455694239033796</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9372734580005222</v>
+        <v>0.9367136739832653</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -1291,19 +1291,19 @@
         <v>655718</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>640913</v>
+        <v>640695</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>667201</v>
+        <v>668277</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9271260364592181</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9061924208875289</v>
+        <v>0.9058843342343862</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9433622752773201</v>
+        <v>0.9448823486236209</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>98608</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80929</v>
+        <v>79675</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118346</v>
+        <v>120620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07985694279884711</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06553922282411812</v>
+        <v>0.06452367046971566</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09584106317867512</v>
+        <v>0.09768302494621367</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -1416,19 +1416,19 @@
         <v>57760</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42997</v>
+        <v>43579</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74206</v>
+        <v>73574</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08086388460251916</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06019579165169246</v>
+        <v>0.06101086105920214</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1038879127916125</v>
+        <v>0.1030031066428006</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -1437,19 +1437,19 @@
         <v>156368</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132058</v>
+        <v>132656</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182609</v>
+        <v>182712</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08022595649429362</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06775364031056988</v>
+        <v>0.06806008792514763</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09368899223019382</v>
+        <v>0.09374186635009508</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1136204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1116466</v>
+        <v>1114192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1153883</v>
+        <v>1155137</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9201430572011529</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9041589368213249</v>
+        <v>0.9023169750537864</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9344607771758819</v>
+        <v>0.9354763295302845</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>642</v>
@@ -1487,19 +1487,19 @@
         <v>656525</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>640079</v>
+        <v>640711</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>671288</v>
+        <v>670706</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9191361153974809</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8961120872083875</v>
+        <v>0.8969968933571992</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9398042083483076</v>
+        <v>0.9389891389407979</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1764</v>
@@ -1508,19 +1508,19 @@
         <v>1792730</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1766489</v>
+        <v>1766386</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1817040</v>
+        <v>1816442</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9197740435057064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9063110077698066</v>
+        <v>0.9062581336499049</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9322463596894301</v>
+        <v>0.9319399120748524</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>28766</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19045</v>
+        <v>20571</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41169</v>
+        <v>41533</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08225662155071821</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05445850588661069</v>
+        <v>0.05882343744841103</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1177221813481272</v>
+        <v>0.1187633444585748</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -1633,19 +1633,19 @@
         <v>48514</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36845</v>
+        <v>36601</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62837</v>
+        <v>63559</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0852988233963905</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06478217280741203</v>
+        <v>0.06435328034527553</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1104820243939193</v>
+        <v>0.1117520615013873</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -1654,19 +1654,19 @@
         <v>77280</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61755</v>
+        <v>60773</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95567</v>
+        <v>94377</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08414048456620864</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0672371973485074</v>
+        <v>0.0661678036143221</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1040513307288215</v>
+        <v>0.1027552072563934</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>320945</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>308542</v>
+        <v>308178</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>330666</v>
+        <v>329140</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9177433784492818</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8822778186518726</v>
+        <v>0.8812366555414246</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9455414941133893</v>
+        <v>0.9411765625515889</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>492</v>
@@ -1704,19 +1704,19 @@
         <v>520238</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>505915</v>
+        <v>505193</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>531907</v>
+        <v>532151</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9147011766036095</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8895179756060808</v>
+        <v>0.8882479384986127</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9352178271925881</v>
+        <v>0.9356467196547243</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>803</v>
@@ -1725,19 +1725,19 @@
         <v>841183</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>822896</v>
+        <v>824086</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>856708</v>
+        <v>857690</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9158595154337914</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8959486692711786</v>
+        <v>0.8972447927436054</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9327628026514927</v>
+        <v>0.9338321963856775</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>14101</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7945</v>
+        <v>8079</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24446</v>
+        <v>24016</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04744331258322206</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02673361709503081</v>
+        <v>0.02718172629981893</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08225228695513212</v>
+        <v>0.08080530109069319</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -1850,19 +1850,19 @@
         <v>110783</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>91847</v>
+        <v>92073</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>131304</v>
+        <v>132544</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08880206567918755</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07362277173218117</v>
+        <v>0.07380418686368055</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1052513588567034</v>
+        <v>0.1062451036702282</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>120</v>
@@ -1871,19 +1871,19 @@
         <v>124884</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105602</v>
+        <v>104609</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146701</v>
+        <v>145872</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08084459329070315</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06836250257789175</v>
+        <v>0.0677192333066327</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09496797421253436</v>
+        <v>0.09443152489684353</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>283109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>272764</v>
+        <v>273194</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289265</v>
+        <v>289131</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9525566874167779</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9177477130448677</v>
+        <v>0.9191946989093068</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9732663829049693</v>
+        <v>0.972818273700181</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1130</v>
@@ -1921,19 +1921,19 @@
         <v>1136749</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1116228</v>
+        <v>1114988</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1155685</v>
+        <v>1155459</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9111979343208124</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8947486411432968</v>
+        <v>0.893754896329772</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9263772282678191</v>
+        <v>0.9261958131363196</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1422</v>
@@ -1942,19 +1942,19 @@
         <v>1419858</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1398041</v>
+        <v>1398870</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1439140</v>
+        <v>1440133</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9191554067092969</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9050320257874657</v>
+        <v>0.9055684751031565</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9316374974221082</v>
+        <v>0.9322807666933673</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>217659</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>192693</v>
+        <v>190489</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>248436</v>
+        <v>248227</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06674788160666946</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05909188435064326</v>
+        <v>0.05841596667096813</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07618611569992979</v>
+        <v>0.07612202372001513</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>258</v>
@@ -2067,19 +2067,19 @@
         <v>271430</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>241205</v>
+        <v>239371</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>303892</v>
+        <v>304533</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0804510815125446</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07149257680801879</v>
+        <v>0.07094893396825601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0900728362025307</v>
+        <v>0.09026282015583476</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>473</v>
@@ -2088,19 +2088,19 @@
         <v>489089</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>446363</v>
+        <v>449302</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>531643</v>
+        <v>534282</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07371610784857995</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06727642088984258</v>
+        <v>0.06771935050455302</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08012996259403843</v>
+        <v>0.08052771204942824</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3043254</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3012477</v>
+        <v>3012686</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3068220</v>
+        <v>3070424</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9332521183933306</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9238138843000702</v>
+        <v>0.9238779762799848</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9409081156493563</v>
+        <v>0.941584033329032</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3034</v>
@@ -2138,19 +2138,19 @@
         <v>3102418</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3069956</v>
+        <v>3069315</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3132643</v>
+        <v>3134477</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9195489184874553</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9099271637974693</v>
+        <v>0.9097371798441654</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9285074231919808</v>
+        <v>0.929051066031744</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6017</v>
@@ -2159,19 +2159,19 @@
         <v>6145672</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6103118</v>
+        <v>6100479</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6188398</v>
+        <v>6185459</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.92628389215142</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9198700374059616</v>
+        <v>0.9194722879505717</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9327235791101576</v>
+        <v>0.9322806494954469</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>28596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18936</v>
+        <v>17734</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42982</v>
+        <v>42512</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06540651717378647</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04331019801658086</v>
+        <v>0.04056052957515922</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09830845572256348</v>
+        <v>0.09723414845084191</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -2526,19 +2526,19 @@
         <v>26821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17076</v>
+        <v>17815</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39241</v>
+        <v>38748</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08529270703441441</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05430298083829815</v>
+        <v>0.05665365516329229</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1247922948190489</v>
+        <v>0.123223364247624</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -2547,19 +2547,19 @@
         <v>55417</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40061</v>
+        <v>40279</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72679</v>
+        <v>72629</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07372577737890336</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05329581428248464</v>
+        <v>0.05358606071710232</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09669127285367879</v>
+        <v>0.09662447207900131</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>408615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>394229</v>
+        <v>394699</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>418275</v>
+        <v>419477</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9345934828262136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9016915442774364</v>
+        <v>0.902765851549158</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9566898019834191</v>
+        <v>0.9594394704248408</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>261</v>
@@ -2597,19 +2597,19 @@
         <v>287633</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>275213</v>
+        <v>275706</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>297378</v>
+        <v>296639</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9147072929655856</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8752077051809511</v>
+        <v>0.8767766357523759</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9456970191617019</v>
+        <v>0.9433463448367077</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>642</v>
@@ -2618,19 +2618,19 @@
         <v>696248</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>678986</v>
+        <v>679036</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>711604</v>
+        <v>711386</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9262742226210966</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9033087271463209</v>
+        <v>0.9033755279209985</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9467041857175154</v>
+        <v>0.9464139392828976</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>28441</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18455</v>
+        <v>18614</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40818</v>
+        <v>41317</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06791053523390027</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04406636611067334</v>
+        <v>0.04444718084623943</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09746472942537261</v>
+        <v>0.09865716177774238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2743,19 +2743,19 @@
         <v>25503</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17572</v>
+        <v>17342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39459</v>
+        <v>37116</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0756617091660665</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05213154527782464</v>
+        <v>0.05144925017651248</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1170657468007848</v>
+        <v>0.1101143326936673</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -2764,19 +2764,19 @@
         <v>53944</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40140</v>
+        <v>39651</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71381</v>
+        <v>70237</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07136704513290282</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0531049788405971</v>
+        <v>0.05245808078485718</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09443709103655405</v>
+        <v>0.09292332862397967</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>390356</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>377979</v>
+        <v>377480</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>400342</v>
+        <v>400183</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9320894647660998</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9025352705746271</v>
+        <v>0.9013428382222575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9559336338893266</v>
+        <v>0.9555528191537602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>281</v>
@@ -2814,19 +2814,19 @@
         <v>311561</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>297605</v>
+        <v>299948</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>319492</v>
+        <v>319722</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9243382908339335</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8829342531992154</v>
+        <v>0.8898856673063329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9478684547221754</v>
+        <v>0.9485507498234876</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>631</v>
@@ -2835,19 +2835,19 @@
         <v>701917</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>684480</v>
+        <v>685624</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>715721</v>
+        <v>716210</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9286329548670972</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9055629089634455</v>
+        <v>0.9070766713760202</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9468950211594019</v>
+        <v>0.9475419192151427</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>74001</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58390</v>
+        <v>59227</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>93931</v>
+        <v>93798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1175711513255799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09276860650485222</v>
+        <v>0.09409798611788373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1492359139954512</v>
+        <v>0.1490245913409696</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -2960,19 +2960,19 @@
         <v>25484</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16858</v>
+        <v>16442</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37287</v>
+        <v>36530</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0983257137636098</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06504323066014074</v>
+        <v>0.06343842170171313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1438629964081068</v>
+        <v>0.1409451263361184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>88</v>
@@ -2981,19 +2981,19 @@
         <v>99485</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80389</v>
+        <v>80555</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122376</v>
+        <v>122275</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1119577248033779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09046693372958872</v>
+        <v>0.09065427880892153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.137718374518123</v>
+        <v>0.1376045676995125</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>555414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>535484</v>
+        <v>535617</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>571025</v>
+        <v>570188</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8824288486744201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8507640860045487</v>
+        <v>0.8509754086590303</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9072313934951478</v>
+        <v>0.9059020138821162</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>219</v>
@@ -3031,19 +3031,19 @@
         <v>233698</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>221895</v>
+        <v>222652</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>242324</v>
+        <v>242740</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9016742862363902</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8561370035918932</v>
+        <v>0.8590548736638816</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9349567693398594</v>
+        <v>0.9365615782982868</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>746</v>
@@ -3052,19 +3052,19 @@
         <v>789112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>766221</v>
+        <v>766322</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>808208</v>
+        <v>808042</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8880422751966222</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8622816254818774</v>
+        <v>0.8623954323004875</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9095330662704114</v>
+        <v>0.9093457211910787</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>127951</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106975</v>
+        <v>107509</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>149672</v>
+        <v>152477</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.110396570155103</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09229872002962475</v>
+        <v>0.09275952847139435</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1291380961828785</v>
+        <v>0.1315576987567942</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -3177,19 +3177,19 @@
         <v>98848</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79754</v>
+        <v>81386</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119626</v>
+        <v>120432</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1289340011576607</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1040284886296048</v>
+        <v>0.1061564255793948</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1560362709831039</v>
+        <v>0.1570877622895351</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>208</v>
@@ -3198,19 +3198,19 @@
         <v>226799</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>201536</v>
+        <v>199978</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>258880</v>
+        <v>257206</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1177767982597385</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1046576511767485</v>
+        <v>0.1038487751190626</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1344365791182364</v>
+        <v>0.1335673293049009</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1031058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1009337</v>
+        <v>1006532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1052034</v>
+        <v>1051500</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8896034298448969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8708619038171216</v>
+        <v>0.8684423012432056</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9077012799703753</v>
+        <v>0.9072404715286057</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>623</v>
@@ -3248,19 +3248,19 @@
         <v>667809</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>647031</v>
+        <v>646225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>686903</v>
+        <v>685271</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8710659988423394</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.843963729016896</v>
+        <v>0.842912237710465</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8959715113703951</v>
+        <v>0.8938435744206051</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1586</v>
@@ -3269,19 +3269,19 @@
         <v>1698868</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1666787</v>
+        <v>1668461</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1724131</v>
+        <v>1725689</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8822232017402616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8655634208817626</v>
+        <v>0.8664326706950991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8953423488232513</v>
+        <v>0.8961512248809375</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>44771</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33678</v>
+        <v>32966</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59861</v>
+        <v>58112</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08804938688918031</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06623325858905484</v>
+        <v>0.06483284931729148</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1177255584489499</v>
+        <v>0.1142862170692438</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>97</v>
@@ -3394,19 +3394,19 @@
         <v>106452</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87734</v>
+        <v>86691</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>129150</v>
+        <v>125692</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.139788951436034</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1152089546627365</v>
+        <v>0.1138389908757178</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1695951875452286</v>
+        <v>0.1650532173048695</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -3415,19 +3415,19 @@
         <v>151224</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127646</v>
+        <v>129059</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>176186</v>
+        <v>173869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1190736380252564</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1005089039701956</v>
+        <v>0.1016211685833246</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1387293154591266</v>
+        <v>0.136904561834843</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>463707</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>448617</v>
+        <v>450366</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>474800</v>
+        <v>475512</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9119506131108197</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8822744415510501</v>
+        <v>0.8857137829307562</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9337667414109452</v>
+        <v>0.9351671506827086</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>606</v>
@@ -3465,19 +3465,19 @@
         <v>655070</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>632372</v>
+        <v>635830</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>673788</v>
+        <v>674831</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.860211048563966</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.830404812454772</v>
+        <v>0.8349467826951315</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8847910453372635</v>
+        <v>0.8861610091242823</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1049</v>
@@ -3486,19 +3486,19 @@
         <v>1118776</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1093814</v>
+        <v>1096131</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1142354</v>
+        <v>1140941</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8809263619747436</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8612706845408733</v>
+        <v>0.8630954381651569</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.899491096029804</v>
+        <v>0.898378831416675</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>21622</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12754</v>
+        <v>13584</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31859</v>
+        <v>34668</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08133617752241014</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04797576878717706</v>
+        <v>0.0511008029777937</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1198454858631704</v>
+        <v>0.1304140796407803</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -3611,19 +3611,19 @@
         <v>124677</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>105463</v>
+        <v>105108</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>147773</v>
+        <v>146754</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1123873181224184</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09506724280214042</v>
+        <v>0.09474751559431606</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1332067800530026</v>
+        <v>0.1322879195074789</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>136</v>
@@ -3632,19 +3632,19 @@
         <v>146299</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>121532</v>
+        <v>126401</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>169807</v>
+        <v>173981</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1063849032873513</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08837494541935116</v>
+        <v>0.0919154238312173</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1234791002402651</v>
+        <v>0.1265142643300115</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>244211</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233974</v>
+        <v>231165</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253079</v>
+        <v>252249</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9186638224775898</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.88015451413683</v>
+        <v>0.8695859203592197</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.952024231212823</v>
+        <v>0.9488991970222063</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>927</v>
@@ -3682,19 +3682,19 @@
         <v>984674</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>961578</v>
+        <v>962597</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1003888</v>
+        <v>1004243</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8876126818775816</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8667932199469975</v>
+        <v>0.867712080492521</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9049327571978597</v>
+        <v>0.9052524844056838</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1172</v>
@@ -3703,19 +3703,19 @@
         <v>1228886</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1205378</v>
+        <v>1201204</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1253653</v>
+        <v>1248784</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8936150967126487</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8765208997597348</v>
+        <v>0.8734857356699882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9116250545806487</v>
+        <v>0.9080845761687827</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>325382</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>289559</v>
+        <v>289015</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>363626</v>
+        <v>363683</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09517587733750914</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0846974111218089</v>
+        <v>0.0845384150816368</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1063626053015428</v>
+        <v>0.106379210661881</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>371</v>
@@ -3828,19 +3828,19 @@
         <v>407785</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>370793</v>
+        <v>370224</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>449406</v>
+        <v>449142</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1149263787679832</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1045007531377618</v>
+        <v>0.1043403045948656</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1266562476888499</v>
+        <v>0.1265818442171971</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>664</v>
@@ -3849,19 +3849,19 @@
         <v>733167</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>679977</v>
+        <v>680917</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>787747</v>
+        <v>788116</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1052346681057254</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09760008550715005</v>
+        <v>0.09773497171994586</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1130687600752581</v>
+        <v>0.1131217358876106</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3093361</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3055117</v>
+        <v>3055060</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3129184</v>
+        <v>3129728</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9048241226624909</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8936373946984574</v>
+        <v>0.8936207893381192</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9153025888781915</v>
+        <v>0.9154615849183633</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2917</v>
@@ -3899,19 +3899,19 @@
         <v>3140446</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3098825</v>
+        <v>3099089</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3177438</v>
+        <v>3178007</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8850736212320168</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8733437523111501</v>
+        <v>0.8734181557828028</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8954992468622383</v>
+        <v>0.8956596954051343</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5826</v>
@@ -3920,19 +3920,19 @@
         <v>6233807</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6179227</v>
+        <v>6178858</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6286997</v>
+        <v>6286057</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8947653318942745</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.886931239924742</v>
+        <v>0.8868782641123893</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9023999144928492</v>
+        <v>0.9022650282800539</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>18494</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11481</v>
+        <v>11432</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27894</v>
+        <v>28930</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04377519074327069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02717477854429575</v>
+        <v>0.02705901371105974</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06602499829821352</v>
+        <v>0.06847637087554984</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -4287,19 +4287,19 @@
         <v>19219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11317</v>
+        <v>11110</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30043</v>
+        <v>29440</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05537763266185951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0326088629841346</v>
+        <v>0.03201123590996072</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08656608456321629</v>
+        <v>0.0848291648934697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -4308,19 +4308,19 @@
         <v>37713</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27049</v>
+        <v>27509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52470</v>
+        <v>52280</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04900779637929316</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0351491578528917</v>
+        <v>0.03574726924269492</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0681842362126731</v>
+        <v>0.06793757231241757</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>403988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>394588</v>
+        <v>393552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>411001</v>
+        <v>411050</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9562248092567294</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9339750017017866</v>
+        <v>0.93152362912445</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9728252214557043</v>
+        <v>0.9729409862889403</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>315</v>
@@ -4358,19 +4358,19 @@
         <v>327836</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>317012</v>
+        <v>317615</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>335738</v>
+        <v>335945</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9446223673381405</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9134339154367846</v>
+        <v>0.9151708351065302</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9673911370158657</v>
+        <v>0.9679887640900393</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>687</v>
@@ -4379,19 +4379,19 @@
         <v>731824</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>717067</v>
+        <v>717257</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>742488</v>
+        <v>742028</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9509922036207068</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.931815763787327</v>
+        <v>0.9320624276875822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9648508421471084</v>
+        <v>0.964252730757305</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>20548</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12575</v>
+        <v>13143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31108</v>
+        <v>30936</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05447108920028367</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03333610762727682</v>
+        <v>0.03484150771124787</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08246569440559737</v>
+        <v>0.08200923298959328</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -4504,19 +4504,19 @@
         <v>19592</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12266</v>
+        <v>11634</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29412</v>
+        <v>30302</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05276531798335281</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03303633249042244</v>
+        <v>0.03133393385742509</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07921326375231064</v>
+        <v>0.08161162737414702</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -4525,19 +4525,19 @@
         <v>40140</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28417</v>
+        <v>28513</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52956</v>
+        <v>53722</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05362496066385621</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03796435634974955</v>
+        <v>0.03809294251047585</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07074754004171178</v>
+        <v>0.07177043297973539</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>356679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>346119</v>
+        <v>346291</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>364652</v>
+        <v>364084</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9455289107997163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9175343055944026</v>
+        <v>0.9179907670104065</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9666638923727232</v>
+        <v>0.9651584922887522</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>333</v>
@@ -4575,19 +4575,19 @@
         <v>351705</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>341885</v>
+        <v>340995</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>359031</v>
+        <v>359663</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9472346820166472</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9207867362476898</v>
+        <v>0.9183883726258528</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9669636675095777</v>
+        <v>0.9686660661425749</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>667</v>
@@ -4596,19 +4596,19 @@
         <v>708384</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>695568</v>
+        <v>694802</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>720107</v>
+        <v>720011</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9463750393361438</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9292524599582883</v>
+        <v>0.9282295670202646</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9620356436502513</v>
+        <v>0.9619070574895243</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>40248</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29312</v>
+        <v>29098</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54110</v>
+        <v>53605</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0771169420968013</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0561621693168726</v>
+        <v>0.05575238411924437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1036760364162208</v>
+        <v>0.1027091227206929</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -4721,19 +4721,19 @@
         <v>13580</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7413</v>
+        <v>7776</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22800</v>
+        <v>23754</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0817460320950712</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04462468047857882</v>
+        <v>0.04680801210611332</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.137249724858946</v>
+        <v>0.1429894656547454</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -4742,19 +4742,19 @@
         <v>53828</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39684</v>
+        <v>40109</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69482</v>
+        <v>70179</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07823461160536481</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05767763618254192</v>
+        <v>0.058294231929227</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1009861008752094</v>
+        <v>0.1019996221548147</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>481666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>467804</v>
+        <v>468309</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>492602</v>
+        <v>492816</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9228830579031987</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8963239635837792</v>
+        <v>0.8972908772793071</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9438378306831274</v>
+        <v>0.9442476158807557</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>141</v>
@@ -4792,19 +4792,19 @@
         <v>152543</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143323</v>
+        <v>142369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158710</v>
+        <v>158347</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9182539679049289</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8627502751410542</v>
+        <v>0.8570105343452545</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9553753195214213</v>
+        <v>0.9531919878938864</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>604</v>
@@ -4813,19 +4813,19 @@
         <v>634208</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>618554</v>
+        <v>617857</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>648352</v>
+        <v>647927</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9217653883946352</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8990138991247906</v>
+        <v>0.8980003778451853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.942322363817458</v>
+        <v>0.941705768070773</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>85645</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69173</v>
+        <v>67970</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108054</v>
+        <v>104732</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07469967004088726</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06033305161984452</v>
+        <v>0.05928377955762846</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09424485499423253</v>
+        <v>0.0913479906866428</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -4938,19 +4938,19 @@
         <v>72816</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57190</v>
+        <v>56560</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92924</v>
+        <v>91368</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08826704928348306</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06932517398056307</v>
+        <v>0.06856236207236752</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1126421230289309</v>
+        <v>0.1107560207421363</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>147</v>
@@ -4959,19 +4959,19 @@
         <v>158461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135507</v>
+        <v>135463</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>184995</v>
+        <v>184509</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08037684756781052</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0687340564545076</v>
+        <v>0.06871143910635856</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09383611469389121</v>
+        <v>0.09358942115145816</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1060877</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1038468</v>
+        <v>1041790</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1077349</v>
+        <v>1078552</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9253003299591127</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9057551450057675</v>
+        <v>0.9086520093133572</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9396669483801552</v>
+        <v>0.9407162204423715</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>729</v>
@@ -5009,19 +5009,19 @@
         <v>752132</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>732024</v>
+        <v>733580</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>767758</v>
+        <v>768388</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9117329507165169</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.887357876971069</v>
+        <v>0.8892439792578635</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9306748260194369</v>
+        <v>0.9314376379276325</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1750</v>
@@ -5030,19 +5030,19 @@
         <v>1813009</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1786475</v>
+        <v>1786961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1835963</v>
+        <v>1836007</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9196231524321895</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9061638853061088</v>
+        <v>0.9064105788485418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9312659435454924</v>
+        <v>0.9312885608936414</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>53620</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39481</v>
+        <v>40865</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69238</v>
+        <v>69751</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08711122218654506</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0641416214349074</v>
+        <v>0.06639063457316581</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1124846022975727</v>
+        <v>0.1133189912173552</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -5155,19 +5155,19 @@
         <v>81832</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67349</v>
+        <v>65444</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>100877</v>
+        <v>101389</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1113202955385128</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09161829893005759</v>
+        <v>0.08902693015171644</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1372279219579927</v>
+        <v>0.1379248801751891</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>122</v>
@@ -5176,19 +5176,19 @@
         <v>135452</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112676</v>
+        <v>114341</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157059</v>
+        <v>159010</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1002874086181647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08342408956745384</v>
+        <v>0.08465715429887259</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.116285079138769</v>
+        <v>0.117729376207476</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>561910</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>546292</v>
+        <v>545779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>576049</v>
+        <v>574665</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9128887778134549</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8875153977024272</v>
+        <v>0.886681008782645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9358583785650925</v>
+        <v>0.9336093654268341</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>622</v>
@@ -5226,19 +5226,19 @@
         <v>653274</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>634229</v>
+        <v>633717</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>667757</v>
+        <v>669662</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8886797044614871</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8627720780420073</v>
+        <v>0.8620751198248109</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9083817010699423</v>
+        <v>0.9109730698482835</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1166</v>
@@ -5247,19 +5247,19 @@
         <v>1215184</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1193577</v>
+        <v>1191626</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1237960</v>
+        <v>1236295</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8997125913818353</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.883714920861231</v>
+        <v>0.8822706237925241</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.916575910432546</v>
+        <v>0.9153428457011274</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>19386</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11554</v>
+        <v>12111</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29113</v>
+        <v>28369</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06794440274760559</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04049629961314782</v>
+        <v>0.04244558185929281</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1020370271882723</v>
+        <v>0.09942965216661327</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>87</v>
@@ -5372,19 +5372,19 @@
         <v>99880</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>81221</v>
+        <v>80201</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120731</v>
+        <v>120865</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09248003893874238</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07520277800416302</v>
+        <v>0.07425906296429462</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1117857071687212</v>
+        <v>0.1119096844032081</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -5393,19 +5393,19 @@
         <v>119266</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96871</v>
+        <v>98161</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>140261</v>
+        <v>142464</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08735273586992538</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07094985210748482</v>
+        <v>0.07189497547757683</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1027295520432652</v>
+        <v>0.1043431240418484</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>265934</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>256207</v>
+        <v>256951</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>273766</v>
+        <v>273209</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9320555972523944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8979629728117279</v>
+        <v>0.9005703478333864</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9595037003868524</v>
+        <v>0.9575544181407072</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>903</v>
@@ -5443,19 +5443,19 @@
         <v>980141</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>959290</v>
+        <v>959156</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>998800</v>
+        <v>999820</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9075199610612577</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8882142928312792</v>
+        <v>0.8880903155967914</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.924797221995837</v>
+        <v>0.9257409370357054</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1155</v>
@@ -5464,19 +5464,19 @@
         <v>1246075</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1225080</v>
+        <v>1222877</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1268470</v>
+        <v>1267180</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9126472641300746</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8972704479567349</v>
+        <v>0.8956568759581517</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9290501478925152</v>
+        <v>0.9281050245224233</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>237941</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>206515</v>
+        <v>210365</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>269049</v>
+        <v>270986</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07062666412286657</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06129877753835244</v>
+        <v>0.06244155255632811</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07986018844552661</v>
+        <v>0.08043537112620951</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>276</v>
@@ -5589,19 +5589,19 @@
         <v>306919</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>274069</v>
+        <v>272013</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>346682</v>
+        <v>342554</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08708031306532889</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07775991533060793</v>
+        <v>0.07717655761110413</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09836208586644431</v>
+        <v>0.0971909461555555</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>499</v>
@@ -5610,19 +5610,19 @@
         <v>544860</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>500541</v>
+        <v>498485</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>591733</v>
+        <v>592464</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07903912833705769</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07261003432318623</v>
+        <v>0.07231184294027856</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08583869744628153</v>
+        <v>0.08594468759369417</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3131054</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3099946</v>
+        <v>3098009</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3162480</v>
+        <v>3158630</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9293733358771334</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9201398115544732</v>
+        <v>0.9195646288737905</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9387012224616476</v>
+        <v>0.937558447443672</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3043</v>
@@ -5660,19 +5660,19 @@
         <v>3217630</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3177867</v>
+        <v>3181995</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3250480</v>
+        <v>3252536</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9129196869346711</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9016379141335557</v>
+        <v>0.9028090538444448</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.922240084669392</v>
+        <v>0.9228234423888959</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6029</v>
@@ -5681,19 +5681,19 @@
         <v>6348685</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6301812</v>
+        <v>6301081</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6393004</v>
+        <v>6395060</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9209608716629423</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9141613025537184</v>
+        <v>0.9140553124063056</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9273899656768136</v>
+        <v>0.9276881570597214</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>60276</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47063</v>
+        <v>47469</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75744</v>
+        <v>76447</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1110357182064075</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08669570267937879</v>
+        <v>0.08744409050927594</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1395295509562157</v>
+        <v>0.1408251120583963</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -6048,19 +6048,19 @@
         <v>43824</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34260</v>
+        <v>33696</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55331</v>
+        <v>56279</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09028165799075964</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07058046106556029</v>
+        <v>0.06941680079228392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1139891934733077</v>
+        <v>0.1159409981229344</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>130</v>
@@ -6069,19 +6069,19 @@
         <v>104100</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>86402</v>
+        <v>86690</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123117</v>
+        <v>125732</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1012383802588326</v>
+        <v>0.1012383802588327</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08402680928611357</v>
+        <v>0.08430777104799449</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1197331467700399</v>
+        <v>0.1222761997430602</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>482576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>467108</v>
+        <v>466405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>495789</v>
+        <v>495383</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8889642817935925</v>
+        <v>0.8889642817935927</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8604704490437842</v>
+        <v>0.8591748879416036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9133042973206212</v>
+        <v>0.912555909490724</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>618</v>
@@ -6119,19 +6119,19 @@
         <v>441586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>430079</v>
+        <v>429131</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>451150</v>
+        <v>451714</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9097183420092403</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8860108065266924</v>
+        <v>0.8840590018770655</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9294195389344397</v>
+        <v>0.9305831992077161</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1099</v>
@@ -6140,19 +6140,19 @@
         <v>924162</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>905145</v>
+        <v>902530</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>941860</v>
+        <v>941572</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8987616197411673</v>
+        <v>0.8987616197411674</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8802668532299601</v>
+        <v>0.8777238002569401</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9159731907138867</v>
+        <v>0.9156922289520054</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>44843</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33196</v>
+        <v>32478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61169</v>
+        <v>61704</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09318164352089021</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06898026916955423</v>
+        <v>0.06748732704252955</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1271064120619039</v>
+        <v>0.1282188198938768</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -6265,19 +6265,19 @@
         <v>38779</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29992</v>
+        <v>29537</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50111</v>
+        <v>49554</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09207186713784218</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07120940704767727</v>
+        <v>0.07012731239367348</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.118976298984646</v>
+        <v>0.1176525240624125</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -6286,19 +6286,19 @@
         <v>83622</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68900</v>
+        <v>67336</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101459</v>
+        <v>101915</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0926636838887764</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07634997811868244</v>
+        <v>0.07461692059577894</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1124291403765955</v>
+        <v>0.1129343453012941</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>436400</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>420074</v>
+        <v>419539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>448047</v>
+        <v>448765</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9068183564791097</v>
+        <v>0.9068183564791098</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8728935879380963</v>
+        <v>0.8717811801061233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9310197308304459</v>
+        <v>0.9325126729574704</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>529</v>
@@ -6336,19 +6336,19 @@
         <v>382407</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>371075</v>
+        <v>371632</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>391194</v>
+        <v>391649</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9079281328621579</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8810237010153539</v>
+        <v>0.8823474759375874</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9287905929523226</v>
+        <v>0.9298726876063267</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>959</v>
@@ -6357,19 +6357,19 @@
         <v>818807</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>800970</v>
+        <v>800514</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>833529</v>
+        <v>835093</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9073363161112237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8875708596234045</v>
+        <v>0.8870656546987061</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9236500218813176</v>
+        <v>0.9253830794042213</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>71869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56913</v>
+        <v>57282</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88771</v>
+        <v>88872</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.152622554341327</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1208618883874626</v>
+        <v>0.121644502901474</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1885157075167121</v>
+        <v>0.1887304110709721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -6482,19 +6482,19 @@
         <v>27039</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19318</v>
+        <v>19731</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38252</v>
+        <v>38416</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.144730120692513</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1034054170611379</v>
+        <v>0.1056127894898633</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2047502092059938</v>
+        <v>0.2056279671520219</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>119</v>
@@ -6503,19 +6503,19 @@
         <v>98908</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81127</v>
+        <v>81529</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115908</v>
+        <v>118637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1503807382106698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1233462080180952</v>
+        <v>0.1239576152802168</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1762286356844192</v>
+        <v>0.1803768200211813</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>399025</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>382123</v>
+        <v>382022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>413981</v>
+        <v>413612</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.847377445658673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8114842924832875</v>
+        <v>0.8112695889290278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8791381116125372</v>
+        <v>0.8783554970985261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>248</v>
@@ -6553,19 +6553,19 @@
         <v>159783</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>148570</v>
+        <v>148406</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167504</v>
+        <v>167091</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8552698793074871</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7952497907940063</v>
+        <v>0.7943720328479781</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8965945829388621</v>
+        <v>0.8943872105101366</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>656</v>
@@ -6574,19 +6574,19 @@
         <v>558807</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>541807</v>
+        <v>539078</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>576588</v>
+        <v>576186</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8496192617893303</v>
+        <v>0.8496192617893301</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8237713643155808</v>
+        <v>0.8196231799788186</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.876653791981905</v>
+        <v>0.8760423847197834</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>165998</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142983</v>
+        <v>141349</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>190222</v>
+        <v>187476</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1475666732516494</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1271071937607436</v>
+        <v>0.1256543146129984</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1691006248400763</v>
+        <v>0.166659534586643</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>157</v>
@@ -6699,19 +6699,19 @@
         <v>100914</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86567</v>
+        <v>87020</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117928</v>
+        <v>118353</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1177631928887113</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1010208386128083</v>
+        <v>0.1015497114161624</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1376170784526033</v>
+        <v>0.1381133809846011</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>344</v>
@@ -6720,19 +6720,19 @@
         <v>266913</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>238234</v>
+        <v>238384</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>296062</v>
+        <v>297042</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1346799133722113</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1202090985261251</v>
+        <v>0.1202848483600304</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1493880862993918</v>
+        <v>0.1498825531647087</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>958905</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>934681</v>
+        <v>937427</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>981920</v>
+        <v>983554</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8524333267483506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8308993751599235</v>
+        <v>0.8333404654133569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8728928062392565</v>
+        <v>0.8743456853870017</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1064</v>
@@ -6770,19 +6770,19 @@
         <v>756011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>738997</v>
+        <v>738572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>770358</v>
+        <v>769905</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8822368071112887</v>
+        <v>0.8822368071112888</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8623829215473967</v>
+        <v>0.8618866190153989</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8989791613871918</v>
+        <v>0.8984502885838377</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1988</v>
@@ -6791,19 +6791,19 @@
         <v>1714916</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1685767</v>
+        <v>1684787</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1743595</v>
+        <v>1743445</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8653200866277887</v>
+        <v>0.8653200866277888</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8506119137006081</v>
+        <v>0.8501174468352912</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.879790901473875</v>
+        <v>0.8797151516399695</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>100615</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>83443</v>
+        <v>83785</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120196</v>
+        <v>120445</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1793246194016122</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1487182890831836</v>
+        <v>0.1493287142152515</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2142225822509729</v>
+        <v>0.21466669822105</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>258</v>
@@ -6916,19 +6916,19 @@
         <v>148764</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132879</v>
+        <v>131899</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>166339</v>
+        <v>167437</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1802773387062641</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1610271279734906</v>
+        <v>0.159839922393167</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2015746115329566</v>
+        <v>0.2029052935358058</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>365</v>
@@ -6937,19 +6937,19 @@
         <v>249379</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>224968</v>
+        <v>225733</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>277696</v>
+        <v>277002</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1798917370512599</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1622823759921917</v>
+        <v>0.1628340912563554</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2003180941505597</v>
+        <v>0.1998173701486783</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>460463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>440882</v>
+        <v>440633</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>477635</v>
+        <v>477293</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8206753805983875</v>
+        <v>0.8206753805983877</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7857774177490273</v>
+        <v>0.7853333017789501</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8512817109168164</v>
+        <v>0.8506712857847485</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1021</v>
@@ -6987,19 +6987,19 @@
         <v>676433</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>658858</v>
+        <v>657760</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>692318</v>
+        <v>693298</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8197226612937358</v>
+        <v>0.8197226612937361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7984253884670435</v>
+        <v>0.7970947064641946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8389728720265093</v>
+        <v>0.8401600776068333</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1457</v>
@@ -7008,19 +7008,19 @@
         <v>1136895</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1108578</v>
+        <v>1109272</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1161306</v>
+        <v>1160541</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8201082629487401</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7996819058494404</v>
+        <v>0.8001826298513216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8377176240078085</v>
+        <v>0.8371659087436444</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>17351</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9157</v>
+        <v>8911</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30590</v>
+        <v>30547</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07371323814099795</v>
+        <v>0.07371323814099798</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0389017506901364</v>
+        <v>0.03785883785673809</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1299542024628334</v>
+        <v>0.1297750433438745</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>245</v>
@@ -7133,19 +7133,19 @@
         <v>157057</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>139556</v>
+        <v>137209</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>178792</v>
+        <v>178459</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1861037647075151</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1653664177096769</v>
+        <v>0.1625857050689585</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2118596376023183</v>
+        <v>0.2114643544793633</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>259</v>
@@ -7154,19 +7154,19 @@
         <v>174408</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>154861</v>
+        <v>151842</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>201653</v>
+        <v>198188</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1615923865293498</v>
+        <v>0.1615923865293499</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1434821699572084</v>
+        <v>0.1406851137514065</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.186836155653925</v>
+        <v>0.1836250554708834</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>218036</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>204797</v>
+        <v>204840</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>226230</v>
+        <v>226476</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9262867618590021</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8700457975371659</v>
+        <v>0.8702249566561255</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9610982493098635</v>
+        <v>0.9621411621432617</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>913</v>
@@ -7204,19 +7204,19 @@
         <v>686862</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>665127</v>
+        <v>665460</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>704363</v>
+        <v>706710</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8138962352924849</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7881403623976815</v>
+        <v>0.7885356455206367</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8346335822903229</v>
+        <v>0.8374142949310416</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1010</v>
@@ -7225,19 +7225,19 @@
         <v>904898</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>877653</v>
+        <v>881118</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>924445</v>
+        <v>927464</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.83840761347065</v>
+        <v>0.8384076134706501</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8131638443460749</v>
+        <v>0.8163749445291165</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8565178300427914</v>
+        <v>0.8593148862485933</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>460953</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>423894</v>
+        <v>421995</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>509767</v>
+        <v>505144</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1349251333562015</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1240776605851982</v>
+        <v>0.1235218892486439</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1492134915726068</v>
+        <v>0.1478604194069922</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>821</v>
@@ -7350,19 +7350,19 @@
         <v>516377</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>480006</v>
+        <v>485739</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>554471</v>
+        <v>554367</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1426668457759393</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1326183293659064</v>
+        <v>0.1342021242017762</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1531918401427793</v>
+        <v>0.153162912120029</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1324</v>
@@ -7371,19 +7371,19 @@
         <v>977329</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>924026</v>
+        <v>921417</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1030979</v>
+        <v>1028022</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.138907728065807</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1313317325330412</v>
+        <v>0.1309609787036742</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1465329345588847</v>
+        <v>0.1461126675390557</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2955405</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2906591</v>
+        <v>2911214</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2992464</v>
+        <v>2994363</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8650748666437986</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8507865084273931</v>
+        <v>0.8521395805930079</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8759223394148018</v>
+        <v>0.8764781107513562</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4393</v>
@@ -7421,19 +7421,19 @@
         <v>3103081</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3064987</v>
+        <v>3065091</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3139452</v>
+        <v>3133719</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8573331542240608</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8468081598572205</v>
+        <v>0.846837087879971</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8673816706340935</v>
+        <v>0.8657978757982239</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7169</v>
@@ -7442,19 +7442,19 @@
         <v>6058486</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6004836</v>
+        <v>6007793</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6111789</v>
+        <v>6114398</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.861092271934193</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8534670654411154</v>
+        <v>0.8538873324609444</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8686682674669587</v>
+        <v>0.8690390212963257</v>
       </c>
     </row>
     <row r="24">
